--- a/build/lib/simgen/params/naissance_ed2019.xlsx
+++ b/build/lib/simgen/params/naissance_ed2019.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Tapageur/Dropbox (CEDIA)/OLG_CAN/demo/raw/isq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pmichaud/Dropbox (CEDIA)/OLG_CAN/demo/simgen/simgen/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888B3129-C2C5-B24E-BD2D-5F3148FDB5D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADF3467-E739-6741-9AED-915258B82CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" tabRatio="781" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="16560" tabRatio="781" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="8" r:id="rId1"/>
     <sheet name="rates" sheetId="11" r:id="rId2"/>
     <sheet name="Faible" sheetId="9" r:id="rId3"/>
     <sheet name="Fort" sheetId="10" r:id="rId4"/>
+    <sheet name="numbers" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Faible!$A$5:$E$158</definedName>
@@ -119,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="22">
   <si>
     <t>Année</t>
   </si>
@@ -193,8 +194,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="00"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -356,11 +357,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,11 +648,11 @@
   <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" activeCellId="1" sqref="D1:E65536 B1:B65536"/>
       <selection pane="topRight" activeCell="B2" activeCellId="1" sqref="D1:E65536 B1:B65536"/>
       <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="D1:E65536 B1:B65536"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8:I158"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8:H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -813,7 +814,7 @@
       <c r="H8" s="5">
         <v>86621</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <f>H8/F8</f>
         <v>1.0530214876145583E-2</v>
       </c>
@@ -900,7 +901,7 @@
       <c r="H11" s="5">
         <v>84352</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="27">
         <f>H11/F11</f>
         <v>1.0165690193023019E-2</v>
       </c>
@@ -987,7 +988,7 @@
       <c r="H14" s="5">
         <v>83849</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="27">
         <f>H14/F14</f>
         <v>9.9933305492309402E-3</v>
       </c>
@@ -1074,7 +1075,7 @@
       <c r="H17" s="5">
         <v>83794</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="27">
         <f>H17/F17</f>
         <v>9.9105338777657447E-3</v>
       </c>
@@ -1161,7 +1162,7 @@
       <c r="H20" s="5">
         <v>84388</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="27">
         <f>H20/F20</f>
         <v>9.9140095829473585E-3</v>
       </c>
@@ -1248,7 +1249,7 @@
       <c r="H23" s="5">
         <v>84773</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="27">
         <f>H23/F23</f>
         <v>9.893940062375017E-3</v>
       </c>
@@ -1335,7 +1336,7 @@
       <c r="H26" s="5">
         <v>84978</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="27">
         <f>H26/F26</f>
         <v>9.8533625594021696E-3</v>
       </c>
@@ -1422,7 +1423,7 @@
       <c r="H29" s="5">
         <v>84992</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="27">
         <f>H29/F29</f>
         <v>9.7920423756532628E-3</v>
       </c>
@@ -1509,7 +1510,7 @@
       <c r="H32" s="5">
         <v>84945</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="27">
         <f>H32/F32</f>
         <v>9.7273502008681494E-3</v>
       </c>
@@ -1596,7 +1597,7 @@
       <c r="H35" s="5">
         <v>84800</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="27">
         <f>H35/F35</f>
         <v>9.6552363318345331E-3</v>
       </c>
@@ -1683,7 +1684,7 @@
       <c r="H38" s="5">
         <v>84573</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="27">
         <f>H38/F38</f>
         <v>9.5777079365884678E-3</v>
       </c>
@@ -1770,7 +1771,7 @@
       <c r="H41" s="5">
         <v>84289</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="27">
         <f>H41/F41</f>
         <v>9.4969818641436627E-3</v>
       </c>
@@ -1857,7 +1858,7 @@
       <c r="H44" s="5">
         <v>83979</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="27">
         <f>H44/F44</f>
         <v>9.4158599143749754E-3</v>
       </c>
@@ -1944,7 +1945,7 @@
       <c r="H47" s="5">
         <v>83678</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="27">
         <f>H47/F47</f>
         <v>9.3382672881762406E-3</v>
       </c>
@@ -2031,7 +2032,7 @@
       <c r="H50" s="5">
         <v>83422</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="27">
         <f>H50/F50</f>
         <v>9.268121481695122E-3</v>
       </c>
@@ -2118,7 +2119,7 @@
       <c r="H53" s="5">
         <v>83225</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="27">
         <f>H53/F53</f>
         <v>9.2068196287513841E-3</v>
       </c>
@@ -2205,7 +2206,7 @@
       <c r="H56" s="5">
         <v>83107</v>
       </c>
-      <c r="I56" s="28">
+      <c r="I56" s="27">
         <f>H56/F56</f>
         <v>9.1563956939698914E-3</v>
       </c>
@@ -2292,7 +2293,7 @@
       <c r="H59" s="5">
         <v>83095</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I59" s="27">
         <f>H59/F59</f>
         <v>9.1195834810370389E-3</v>
       </c>
@@ -2379,7 +2380,7 @@
       <c r="H62" s="5">
         <v>83202</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="27">
         <f>H62/F62</f>
         <v>9.0975263086591832E-3</v>
       </c>
@@ -2466,7 +2467,7 @@
       <c r="H65" s="5">
         <v>83439</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="27">
         <f>H65/F65</f>
         <v>9.0911487932946091E-3</v>
       </c>
@@ -2553,7 +2554,7 @@
       <c r="H68" s="5">
         <v>83802</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="27">
         <f>H68/F68</f>
         <v>9.0997331930690352E-3</v>
       </c>
@@ -2640,7 +2641,7 @@
       <c r="H71" s="5">
         <v>84275</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="27">
         <f>H71/F71</f>
         <v>9.1212800681603947E-3</v>
       </c>
@@ -2727,7 +2728,7 @@
       <c r="H74" s="5">
         <v>84822</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="27">
         <f>H74/F74</f>
         <v>9.1516831438753742E-3</v>
       </c>
@@ -2814,7 +2815,7 @@
       <c r="H77" s="5">
         <v>85408</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="27">
         <f>H77/F77</f>
         <v>9.1870333835632687E-3</v>
       </c>
@@ -2901,7 +2902,7 @@
       <c r="H80" s="5">
         <v>86027</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="27">
         <f>H80/F80</f>
         <v>9.2265830957697602E-3</v>
       </c>
@@ -2988,7 +2989,7 @@
       <c r="H83" s="5">
         <v>86626</v>
       </c>
-      <c r="I83" s="28">
+      <c r="I83" s="27">
         <f>H83/F83</f>
         <v>9.2646007888161699E-3</v>
       </c>
@@ -3075,7 +3076,7 @@
       <c r="H86" s="5">
         <v>87191</v>
       </c>
-      <c r="I86" s="28">
+      <c r="I86" s="27">
         <f>H86/F86</f>
         <v>9.2995678667618341E-3</v>
       </c>
@@ -3162,7 +3163,7 @@
       <c r="H89" s="5">
         <v>87700</v>
       </c>
-      <c r="I89" s="28">
+      <c r="I89" s="27">
         <f>H89/F89</f>
         <v>9.3291599969023368E-3</v>
       </c>
@@ -3249,7 +3250,7 @@
       <c r="H92" s="5">
         <v>88143</v>
       </c>
-      <c r="I92" s="28">
+      <c r="I92" s="27">
         <f>H92/F92</f>
         <v>9.3523460814749007E-3</v>
       </c>
@@ -3336,7 +3337,7 @@
       <c r="H95" s="5">
         <v>88500</v>
       </c>
-      <c r="I95" s="28">
+      <c r="I95" s="27">
         <f>H95/F95</f>
         <v>9.3670459491177836E-3</v>
       </c>
@@ -3423,7 +3424,7 @@
       <c r="H98" s="5">
         <v>88786</v>
       </c>
-      <c r="I98" s="28">
+      <c r="I98" s="27">
         <f>H98/F98</f>
         <v>9.3748818715890594E-3</v>
       </c>
@@ -3510,7 +3511,7 @@
       <c r="H101" s="5">
         <v>88990</v>
       </c>
-      <c r="I101" s="28">
+      <c r="I101" s="27">
         <f>H101/F101</f>
         <v>9.3747132621905781E-3</v>
       </c>
@@ -3597,7 +3598,7 @@
       <c r="H104" s="5">
         <v>89135</v>
       </c>
-      <c r="I104" s="28">
+      <c r="I104" s="27">
         <f>H104/F104</f>
         <v>9.3689529077021234E-3</v>
       </c>
@@ -3684,7 +3685,7 @@
       <c r="H107" s="5">
         <v>89224</v>
       </c>
-      <c r="I107" s="28">
+      <c r="I107" s="27">
         <f>H107/F107</f>
         <v>9.3579115906834535E-3</v>
       </c>
@@ -3771,7 +3772,7 @@
       <c r="H110" s="5">
         <v>89263</v>
       </c>
-      <c r="I110" s="28">
+      <c r="I110" s="27">
         <f>H110/F110</f>
         <v>9.3421587217727368E-3</v>
       </c>
@@ -3858,7 +3859,7 @@
       <c r="H113" s="5">
         <v>89266</v>
       </c>
-      <c r="I113" s="28">
+      <c r="I113" s="27">
         <f>H113/F113</f>
         <v>9.3231129250120545E-3</v>
       </c>
@@ -3945,7 +3946,7 @@
       <c r="H116" s="5">
         <v>89238</v>
       </c>
-      <c r="I116" s="28">
+      <c r="I116" s="27">
         <f>H116/F116</f>
         <v>9.3012183263956535E-3</v>
       </c>
@@ -4032,7 +4033,7 @@
       <c r="H119" s="5">
         <v>89193</v>
       </c>
-      <c r="I119" s="28">
+      <c r="I119" s="27">
         <f>H119/F119</f>
         <v>9.2778480027760832E-3</v>
       </c>
@@ -4119,7 +4120,7 @@
       <c r="H122" s="5">
         <v>89140</v>
       </c>
-      <c r="I122" s="28">
+      <c r="I122" s="27">
         <f>H122/F122</f>
         <v>9.2538581186514032E-3</v>
       </c>
@@ -4206,7 +4207,7 @@
       <c r="H125" s="5">
         <v>89072</v>
       </c>
-      <c r="I125" s="28">
+      <c r="I125" s="27">
         <f>H125/F125</f>
         <v>9.2284258142708853E-3</v>
       </c>
@@ -4293,7 +4294,7 @@
       <c r="H128" s="5">
         <v>89008</v>
       </c>
-      <c r="I128" s="28">
+      <c r="I128" s="27">
         <f>H128/F128</f>
         <v>9.2034394608220497E-3</v>
       </c>
@@ -4380,7 +4381,7 @@
       <c r="H131" s="5">
         <v>88935</v>
       </c>
-      <c r="I131" s="28">
+      <c r="I131" s="27">
         <f>H131/F131</f>
         <v>9.1774645183959475E-3</v>
       </c>
@@ -4467,7 +4468,7 @@
       <c r="H134" s="5">
         <v>88871</v>
       </c>
-      <c r="I134" s="28">
+      <c r="I134" s="27">
         <f>H134/F134</f>
         <v>9.1522894162950324E-3</v>
       </c>
@@ -4554,7 +4555,7 @@
       <c r="H137" s="5">
         <v>88826</v>
       </c>
-      <c r="I137" s="28">
+      <c r="I137" s="27">
         <f>H137/F137</f>
         <v>9.128887338619893E-3</v>
       </c>
@@ -4641,7 +4642,7 @@
       <c r="H140" s="5">
         <v>88788</v>
       </c>
-      <c r="I140" s="28">
+      <c r="I140" s="27">
         <f>H140/F140</f>
         <v>9.1059702830390901E-3</v>
       </c>
@@ -4728,7 +4729,7 @@
       <c r="H143" s="5">
         <v>88763</v>
       </c>
-      <c r="I143" s="28">
+      <c r="I143" s="27">
         <f>H143/F143</f>
         <v>9.084131297898982E-3</v>
       </c>
@@ -4815,7 +4816,7 @@
       <c r="H146" s="5">
         <v>88767</v>
       </c>
-      <c r="I146" s="28">
+      <c r="I146" s="27">
         <f>H146/F146</f>
         <v>9.0649805525750381E-3</v>
       </c>
@@ -4902,7 +4903,7 @@
       <c r="H149" s="5">
         <v>88792</v>
       </c>
-      <c r="I149" s="28">
+      <c r="I149" s="27">
         <f>H149/F149</f>
         <v>9.0477081353968862E-3</v>
       </c>
@@ -4989,7 +4990,7 @@
       <c r="H152" s="5">
         <v>88840</v>
       </c>
-      <c r="I152" s="28">
+      <c r="I152" s="27">
         <f>H152/F152</f>
         <v>9.0325245102798844E-3</v>
       </c>
@@ -5076,7 +5077,7 @@
       <c r="H155" s="5">
         <v>88918</v>
       </c>
-      <c r="I155" s="28">
+      <c r="I155" s="27">
         <f>H155/F155</f>
         <v>9.0201742174452586E-3</v>
       </c>
@@ -5163,7 +5164,7 @@
       <c r="H158" s="5">
         <v>89034</v>
       </c>
-      <c r="I158" s="28">
+      <c r="I158" s="27">
         <f>H158/F158</f>
         <v>9.011490120548948E-3</v>
       </c>
@@ -5218,8 +5219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16EB1E5-EC37-9342-9EF4-2CBEDC188D12}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -5242,13 +5243,13 @@
       <c r="A2" s="16">
         <v>2016</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="27">
         <v>1.0530214876145583E-2</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>1.0530214876145583E-2</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>1.0530214876145583E-2</v>
       </c>
     </row>
@@ -5256,13 +5257,13 @@
       <c r="A3" s="16">
         <v>2017</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="27">
         <v>1.0165690193023019E-2</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>1.0165690193023019E-2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>1.0165690193023019E-2</v>
       </c>
     </row>
@@ -5270,13 +5271,13 @@
       <c r="A4" s="16">
         <v>2018</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="27">
         <v>9.9933305492309402E-3</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>9.9933305492309402E-3</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>9.9933305492309402E-3</v>
       </c>
     </row>
@@ -5284,13 +5285,13 @@
       <c r="A5" s="16">
         <v>2019</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="27">
         <v>9.9105338777657447E-3</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>9.8568194588398439E-3</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <v>9.9471761443485993E-3</v>
       </c>
     </row>
@@ -5298,13 +5299,13 @@
       <c r="A6" s="16">
         <v>2020</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="27">
         <v>9.9140095829473585E-3</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>9.7234805903374018E-3</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="28">
         <v>1.0054947349190118E-2</v>
       </c>
     </row>
@@ -5312,13 +5313,13 @@
       <c r="A7" s="16">
         <v>2021</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="27">
         <v>9.893940062375017E-3</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>9.5461436951785675E-3</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="28">
         <v>1.015831214026023E-2</v>
       </c>
     </row>
@@ -5326,13 +5327,13 @@
       <c r="A8" s="16">
         <v>2022</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="27">
         <v>9.8533625594021696E-3</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>9.3641374403650359E-3</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>1.0250344556861194E-2</v>
       </c>
     </row>
@@ -5340,13 +5341,13 @@
       <c r="A9" s="16">
         <v>2023</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="27">
         <v>9.7920423756532628E-3</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>9.1754926714103027E-3</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="28">
         <v>1.0346230266845738E-2</v>
       </c>
     </row>
@@ -5354,13 +5355,13 @@
       <c r="A10" s="16">
         <v>2024</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="27">
         <v>9.7273502008681494E-3</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>8.9836465230713983E-3</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>1.0435701305551492E-2</v>
       </c>
     </row>
@@ -5368,13 +5369,13 @@
       <c r="A11" s="16">
         <v>2025</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="27">
         <v>9.6552363318345331E-3</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>8.7923282827168676E-3</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>1.0509058649826503E-2</v>
       </c>
     </row>
@@ -5382,13 +5383,13 @@
       <c r="A12" s="16">
         <v>2026</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="27">
         <v>9.5777079365884678E-3</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>8.6018649480270222E-3</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>1.057024902868473E-2</v>
       </c>
     </row>
@@ -5396,13 +5397,13 @@
       <c r="A13" s="16">
         <v>2027</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="27">
         <v>9.4969818641436627E-3</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>8.4653448851547842E-3</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>1.0556969771569195E-2</v>
       </c>
     </row>
@@ -5410,13 +5411,13 @@
       <c r="A14" s="16">
         <v>2028</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="27">
         <v>9.4158599143749754E-3</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="28">
         <v>8.381779701723692E-3</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="28">
         <v>1.047513344160367E-2</v>
       </c>
     </row>
@@ -5424,13 +5425,13 @@
       <c r="A15" s="16">
         <v>2029</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="27">
         <v>9.3382672881762406E-3</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="28">
         <v>8.3066728137209701E-3</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="28">
         <v>1.0396170387232794E-2</v>
       </c>
     </row>
@@ -5438,13 +5439,13 @@
       <c r="A16" s="16">
         <v>2030</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="27">
         <v>9.268121481695122E-3</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <v>8.2390090368996156E-3</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="28">
         <v>1.0320249854652229E-2</v>
       </c>
     </row>
@@ -5452,13 +5453,13 @@
       <c r="A17" s="16">
         <v>2031</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="27">
         <v>9.2068196287513841E-3</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="28">
         <v>8.1825511972870111E-3</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="28">
         <v>1.0251615908822797E-2</v>
       </c>
     </row>
@@ -5466,13 +5467,13 @@
       <c r="A18" s="16">
         <v>2032</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="27">
         <v>9.1563956939698914E-3</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>8.1402193543740533E-3</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="28">
         <v>1.0191305257104018E-2</v>
       </c>
     </row>
@@ -5480,13 +5481,13 @@
       <c r="A19" s="16">
         <v>2033</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="27">
         <v>9.1195834810370389E-3</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>8.1127311897439911E-3</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>1.0141960265150725E-2</v>
       </c>
     </row>
@@ -5494,13 +5495,13 @@
       <c r="A20" s="16">
         <v>2034</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="27">
         <v>9.0975263086591832E-3</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="28">
         <v>8.103264040763055E-3</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="28">
         <v>1.0106626333343798E-2</v>
       </c>
     </row>
@@ -5508,13 +5509,13 @@
       <c r="A21" s="16">
         <v>2035</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="27">
         <v>9.0911487932946091E-3</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="28">
         <v>8.1102058197701377E-3</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="28">
         <v>1.008557376051236E-2</v>
       </c>
     </row>
@@ -5522,13 +5523,13 @@
       <c r="A22" s="16">
         <v>2036</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="27">
         <v>9.0997331930690352E-3</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
         <v>8.1338296440657595E-3</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>1.0078383938976416E-2</v>
       </c>
     </row>
@@ -5536,13 +5537,13 @@
       <c r="A23" s="16">
         <v>2037</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="27">
         <v>9.1212800681603947E-3</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="28">
         <v>8.1705873168319149E-3</v>
       </c>
-      <c r="D23" s="29">
+      <c r="D23" s="28">
         <v>1.0081726431882867E-2</v>
       </c>
     </row>
@@ -5550,13 +5551,13 @@
       <c r="A24" s="16">
         <v>2038</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="27">
         <v>9.1516831438753742E-3</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>8.2175960478624993E-3</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="28">
         <v>1.009578666146716E-2</v>
       </c>
     </row>
@@ -5564,13 +5565,13 @@
       <c r="A25" s="16">
         <v>2039</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="27">
         <v>9.1870333835632687E-3</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="28">
         <v>8.2711839334074708E-3</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <v>1.0114017483189831E-2</v>
       </c>
     </row>
@@ -5578,13 +5579,13 @@
       <c r="A26" s="16">
         <v>2040</v>
       </c>
-      <c r="B26" s="28">
+      <c r="B26" s="27">
         <v>9.2265830957697602E-3</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <v>8.3264702525137641E-3</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="28">
         <v>1.0135606184735413E-2</v>
       </c>
     </row>
@@ -5592,13 +5593,13 @@
       <c r="A27" s="16">
         <v>2041</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="27">
         <v>9.2646007888161699E-3</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <v>8.3817582725477686E-3</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="28">
         <v>1.0157518687597194E-2</v>
       </c>
     </row>
@@ -5606,13 +5607,13 @@
       <c r="A28" s="16">
         <v>2042</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="27">
         <v>9.2995678667618341E-3</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="28">
         <v>8.4336669126817334E-3</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <v>1.0176239451438382E-2</v>
       </c>
     </row>
@@ -5620,13 +5621,13 @@
       <c r="A29" s="16">
         <v>2043</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <v>9.3291599969023368E-3</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="28">
         <v>8.4772562794766266E-3</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="28">
         <v>1.0191742910808916E-2</v>
       </c>
     </row>
@@ -5634,13 +5635,13 @@
       <c r="A30" s="16">
         <v>2044</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="27">
         <v>9.3523460814749007E-3</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="28">
         <v>8.5127865323874445E-3</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="28">
         <v>1.0202059225606795E-2</v>
       </c>
     </row>
@@ -5648,13 +5649,13 @@
       <c r="A31" s="16">
         <v>2045</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="27">
         <v>9.3670459491177836E-3</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="28">
         <v>8.5382343319883574E-3</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="28">
         <v>1.0207004281449394E-2</v>
       </c>
     </row>
@@ -5662,13 +5663,13 @@
       <c r="A32" s="16">
         <v>2046</v>
       </c>
-      <c r="B32" s="28">
+      <c r="B32" s="27">
         <v>9.3748818715890594E-3</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="28">
         <v>8.5507223774453651E-3</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="28">
         <v>1.0208923913096909E-2</v>
       </c>
     </row>
@@ -5676,13 +5677,13 @@
       <c r="A33" s="16">
         <v>2047</v>
       </c>
-      <c r="B33" s="28">
+      <c r="B33" s="27">
         <v>9.3747132621905781E-3</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>8.5520206909199953E-3</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="28">
         <v>1.0209045764519508E-2</v>
       </c>
     </row>
@@ -5690,13 +5691,13 @@
       <c r="A34" s="16">
         <v>2048</v>
       </c>
-      <c r="B34" s="28">
+      <c r="B34" s="27">
         <v>9.3689529077021234E-3</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="28">
         <v>8.541598429456598E-3</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="28">
         <v>1.0206873359001448E-2</v>
       </c>
     </row>
@@ -5704,13 +5705,13 @@
       <c r="A35" s="16">
         <v>2049</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="27">
         <v>9.3579115906834535E-3</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="28">
         <v>8.5212127892687495E-3</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="28">
         <v>1.0205334243680066E-2</v>
       </c>
     </row>
@@ -5718,13 +5719,13 @@
       <c r="A36" s="16">
         <v>2050</v>
       </c>
-      <c r="B36" s="28">
+      <c r="B36" s="27">
         <v>9.3421587217727368E-3</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="28">
         <v>8.4900815753281879E-3</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="28">
         <v>1.0204687047419558E-2</v>
       </c>
     </row>
@@ -5732,13 +5733,13 @@
       <c r="A37" s="16">
         <v>2051</v>
       </c>
-      <c r="B37" s="28">
+      <c r="B37" s="27">
         <v>9.3231129250120545E-3</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="28">
         <v>8.4497167693384414E-3</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="28">
         <v>1.0206990599359278E-2</v>
       </c>
     </row>
@@ -5746,13 +5747,13 @@
       <c r="A38" s="16">
         <v>2052</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="27">
         <v>9.3012183263956535E-3</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <v>8.4031031550440352E-3</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="28">
         <v>1.0210715173992442E-2</v>
       </c>
     </row>
@@ -5760,13 +5761,13 @@
       <c r="A39" s="16">
         <v>2053</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="27">
         <v>9.2778480027760832E-3</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="28">
         <v>8.3517820067078637E-3</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="28">
         <v>1.0216992437375292E-2</v>
       </c>
     </row>
@@ -5774,13 +5775,13 @@
       <c r="A40" s="16">
         <v>2054</v>
       </c>
-      <c r="B40" s="28">
+      <c r="B40" s="27">
         <v>9.2538581186514032E-3</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="28">
         <v>8.2974392122254111E-3</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="28">
         <v>1.0223508769944012E-2</v>
       </c>
     </row>
@@ -5788,13 +5789,13 @@
       <c r="A41" s="16">
         <v>2055</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="27">
         <v>9.2284258142708853E-3</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="28">
         <v>8.2425372400025693E-3</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="28">
         <v>1.0230972869492094E-2</v>
       </c>
     </row>
@@ -5802,13 +5803,13 @@
       <c r="A42" s="16">
         <v>2056</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="27">
         <v>9.2034394608220497E-3</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="28">
         <v>8.1873344413438149E-3</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="28">
         <v>1.023609704967174E-2</v>
       </c>
     </row>
@@ -5816,13 +5817,13 @@
       <c r="A43" s="16">
         <v>2057</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="27">
         <v>9.1774645183959475E-3</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="28">
         <v>8.1351120715036883E-3</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="28">
         <v>1.0239912670560904E-2</v>
       </c>
     </row>
@@ -5830,13 +5831,13 @@
       <c r="A44" s="16">
         <v>2058</v>
       </c>
-      <c r="B44" s="28">
+      <c r="B44" s="27">
         <v>9.1522894162950324E-3</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="28">
         <v>8.0875719471446891E-3</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="28">
         <v>1.0239778352435183E-2</v>
       </c>
     </row>
@@ -5844,13 +5845,13 @@
       <c r="A45" s="16">
         <v>2059</v>
       </c>
-      <c r="B45" s="28">
+      <c r="B45" s="27">
         <v>9.128887338619893E-3</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="28">
         <v>8.0437308757835644E-3</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="28">
         <v>1.0236337038302845E-2</v>
       </c>
     </row>
@@ -5858,13 +5859,13 @@
       <c r="A46" s="16">
         <v>2060</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="27">
         <v>9.1059702830390901E-3</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="28">
         <v>8.0056021052291697E-3</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="28">
         <v>1.0230672214225831E-2</v>
       </c>
     </row>
@@ -5872,13 +5873,13 @@
       <c r="A47" s="16">
         <v>2061</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="27">
         <v>9.084131297898982E-3</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="28">
         <v>7.975400004405879E-3</v>
       </c>
-      <c r="D47" s="29">
+      <c r="D47" s="28">
         <v>1.0220576042587595E-2</v>
       </c>
     </row>
@@ -5886,13 +5887,13 @@
       <c r="A48" s="16">
         <v>2062</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="27">
         <v>9.0649805525750381E-3</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="28">
         <v>7.9511852179071588E-3</v>
       </c>
-      <c r="D48" s="29">
+      <c r="D48" s="28">
         <v>1.020836719391288E-2</v>
       </c>
     </row>
@@ -5900,13 +5901,13 @@
       <c r="A49" s="16">
         <v>2063</v>
       </c>
-      <c r="B49" s="28">
+      <c r="B49" s="27">
         <v>9.0477081353968862E-3</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="28">
         <v>7.9336812469782917E-3</v>
       </c>
-      <c r="D49" s="29">
+      <c r="D49" s="28">
         <v>1.0192407343486164E-2</v>
       </c>
     </row>
@@ -5914,13 +5915,13 @@
       <c r="A50" s="16">
         <v>2064</v>
       </c>
-      <c r="B50" s="28">
+      <c r="B50" s="27">
         <v>9.0325245102798844E-3</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="28">
         <v>7.9246634534184644E-3</v>
       </c>
-      <c r="D50" s="29">
+      <c r="D50" s="28">
         <v>1.017407287729798E-2</v>
       </c>
     </row>
@@ -5928,13 +5929,13 @@
       <c r="A51" s="16">
         <v>2065</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="27">
         <v>9.0201742174452586E-3</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="28">
         <v>7.921688764045089E-3</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="28">
         <v>1.0154876260884021E-2</v>
       </c>
     </row>
@@ -5942,13 +5943,13 @@
       <c r="A52" s="16">
         <v>2066</v>
       </c>
-      <c r="B52" s="28">
+      <c r="B52" s="27">
         <v>9.011490120548948E-3</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="28">
         <v>7.9266673599511575E-3</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="28">
         <v>1.013332073702382E-2</v>
       </c>
     </row>
@@ -5965,11 +5966,11 @@
   <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" activeCellId="1" sqref="D1:E65536 B1:B65536"/>
       <selection pane="topRight" activeCell="B2" activeCellId="1" sqref="D1:E65536 B1:B65536"/>
       <selection pane="bottomLeft" activeCell="B2" activeCellId="1" sqref="D1:E65536 B1:B65536"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8:I158"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8:H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -10607,11 +10608,11 @@
   <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F26" activePane="bottomRight" state="frozen"/>
       <selection sqref="A1:U1"/>
       <selection pane="topRight" sqref="A1:U1"/>
       <selection pane="bottomLeft" sqref="A1:U1"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8:I158"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8:H158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -10628,16 +10629,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="7"/>
@@ -14613,4 +14614,750 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E584E78-4F6E-264B-A603-9A9D102D52D8}">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="5">
+        <v>86621</v>
+      </c>
+      <c r="C2" s="5">
+        <v>86621</v>
+      </c>
+      <c r="D2" s="5">
+        <v>86621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="5">
+        <v>84352</v>
+      </c>
+      <c r="C3" s="5">
+        <v>84352</v>
+      </c>
+      <c r="D3" s="5">
+        <v>84352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="16">
+        <v>2018</v>
+      </c>
+      <c r="B4" s="5">
+        <v>83849</v>
+      </c>
+      <c r="C4" s="5">
+        <v>83849</v>
+      </c>
+      <c r="D4" s="5">
+        <v>83849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="16">
+        <v>2019</v>
+      </c>
+      <c r="B5" s="5">
+        <v>83794</v>
+      </c>
+      <c r="C5" s="5">
+        <v>83794</v>
+      </c>
+      <c r="D5" s="5">
+        <v>84236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="16">
+        <v>2020</v>
+      </c>
+      <c r="B6" s="5">
+        <v>84388</v>
+      </c>
+      <c r="C6" s="5">
+        <v>84388</v>
+      </c>
+      <c r="D6" s="5">
+        <v>85968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B7" s="5">
+        <v>84773</v>
+      </c>
+      <c r="C7" s="5">
+        <v>84773</v>
+      </c>
+      <c r="D7" s="5">
+        <v>87700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="5">
+        <v>84978</v>
+      </c>
+      <c r="C8" s="5">
+        <v>84978</v>
+      </c>
+      <c r="D8" s="5">
+        <v>89434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>84992</v>
+      </c>
+      <c r="C9" s="5">
+        <v>84992</v>
+      </c>
+      <c r="D9" s="5">
+        <v>91234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="16">
+        <v>2024</v>
+      </c>
+      <c r="B10" s="5">
+        <v>84945</v>
+      </c>
+      <c r="C10" s="5">
+        <v>84945</v>
+      </c>
+      <c r="D10" s="5">
+        <v>92968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="5">
+        <v>84800</v>
+      </c>
+      <c r="C11" s="5">
+        <v>84800</v>
+      </c>
+      <c r="D11" s="5">
+        <v>94544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="16">
+        <v>2026</v>
+      </c>
+      <c r="B12" s="5">
+        <v>84573</v>
+      </c>
+      <c r="C12" s="5">
+        <v>84573</v>
+      </c>
+      <c r="D12" s="5">
+        <v>95991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="16">
+        <v>2027</v>
+      </c>
+      <c r="B13" s="5">
+        <v>84289</v>
+      </c>
+      <c r="C13" s="5">
+        <v>84289</v>
+      </c>
+      <c r="D13" s="5">
+        <v>96745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="16">
+        <v>2028</v>
+      </c>
+      <c r="B14" s="5">
+        <v>83979</v>
+      </c>
+      <c r="C14" s="5">
+        <v>83979</v>
+      </c>
+      <c r="D14" s="5">
+        <v>96853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="16">
+        <v>2029</v>
+      </c>
+      <c r="B15" s="5">
+        <v>83678</v>
+      </c>
+      <c r="C15" s="5">
+        <v>83678</v>
+      </c>
+      <c r="D15" s="5">
+        <v>96964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="16">
+        <v>2030</v>
+      </c>
+      <c r="B16" s="5">
+        <v>83422</v>
+      </c>
+      <c r="C16" s="5">
+        <v>83422</v>
+      </c>
+      <c r="D16" s="5">
+        <v>97080</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="16">
+        <v>2031</v>
+      </c>
+      <c r="B17" s="5">
+        <v>83225</v>
+      </c>
+      <c r="C17" s="5">
+        <v>83225</v>
+      </c>
+      <c r="D17" s="5">
+        <v>97242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="16">
+        <v>2032</v>
+      </c>
+      <c r="B18" s="5">
+        <v>83107</v>
+      </c>
+      <c r="C18" s="5">
+        <v>83107</v>
+      </c>
+      <c r="D18" s="5">
+        <v>97462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="16">
+        <v>2033</v>
+      </c>
+      <c r="B19" s="5">
+        <v>83095</v>
+      </c>
+      <c r="C19" s="5">
+        <v>83095</v>
+      </c>
+      <c r="D19" s="5">
+        <v>97768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="16">
+        <v>2034</v>
+      </c>
+      <c r="B20" s="5">
+        <v>83202</v>
+      </c>
+      <c r="C20" s="5">
+        <v>83202</v>
+      </c>
+      <c r="D20" s="5">
+        <v>98193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="16">
+        <v>2035</v>
+      </c>
+      <c r="B21" s="5">
+        <v>83439</v>
+      </c>
+      <c r="C21" s="5">
+        <v>83439</v>
+      </c>
+      <c r="D21" s="5">
+        <v>98744</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="16">
+        <v>2036</v>
+      </c>
+      <c r="B22" s="5">
+        <v>83802</v>
+      </c>
+      <c r="C22" s="5">
+        <v>83802</v>
+      </c>
+      <c r="D22" s="5">
+        <v>99421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="16">
+        <v>2037</v>
+      </c>
+      <c r="B23" s="5">
+        <v>84275</v>
+      </c>
+      <c r="C23" s="5">
+        <v>84275</v>
+      </c>
+      <c r="D23" s="5">
+        <v>100195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="16">
+        <v>2038</v>
+      </c>
+      <c r="B24" s="5">
+        <v>84822</v>
+      </c>
+      <c r="C24" s="5">
+        <v>84822</v>
+      </c>
+      <c r="D24" s="5">
+        <v>101071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="16">
+        <v>2039</v>
+      </c>
+      <c r="B25" s="5">
+        <v>85408</v>
+      </c>
+      <c r="C25" s="5">
+        <v>85408</v>
+      </c>
+      <c r="D25" s="5">
+        <v>101986</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="16">
+        <v>2040</v>
+      </c>
+      <c r="B26" s="5">
+        <v>86027</v>
+      </c>
+      <c r="C26" s="5">
+        <v>86027</v>
+      </c>
+      <c r="D26" s="5">
+        <v>102933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="16">
+        <v>2041</v>
+      </c>
+      <c r="B27" s="5">
+        <v>86626</v>
+      </c>
+      <c r="C27" s="5">
+        <v>86626</v>
+      </c>
+      <c r="D27" s="5">
+        <v>103882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="16">
+        <v>2042</v>
+      </c>
+      <c r="B28" s="5">
+        <v>87191</v>
+      </c>
+      <c r="C28" s="5">
+        <v>87191</v>
+      </c>
+      <c r="D28" s="5">
+        <v>104797</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="16">
+        <v>2043</v>
+      </c>
+      <c r="B29" s="5">
+        <v>87700</v>
+      </c>
+      <c r="C29" s="5">
+        <v>87700</v>
+      </c>
+      <c r="D29" s="5">
+        <v>105677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="16">
+        <v>2044</v>
+      </c>
+      <c r="B30" s="5">
+        <v>88143</v>
+      </c>
+      <c r="C30" s="5">
+        <v>88143</v>
+      </c>
+      <c r="D30" s="5">
+        <v>106501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="16">
+        <v>2045</v>
+      </c>
+      <c r="B31" s="5">
+        <v>88500</v>
+      </c>
+      <c r="C31" s="5">
+        <v>88500</v>
+      </c>
+      <c r="D31" s="5">
+        <v>107266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="16">
+        <v>2046</v>
+      </c>
+      <c r="B32" s="5">
+        <v>88786</v>
+      </c>
+      <c r="C32" s="5">
+        <v>88786</v>
+      </c>
+      <c r="D32" s="5">
+        <v>107996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="16">
+        <v>2047</v>
+      </c>
+      <c r="B33" s="5">
+        <v>88990</v>
+      </c>
+      <c r="C33" s="5">
+        <v>88990</v>
+      </c>
+      <c r="D33" s="5">
+        <v>108704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="16">
+        <v>2048</v>
+      </c>
+      <c r="B34" s="5">
+        <v>89135</v>
+      </c>
+      <c r="C34" s="5">
+        <v>89135</v>
+      </c>
+      <c r="D34" s="5">
+        <v>109385</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="16">
+        <v>2049</v>
+      </c>
+      <c r="B35" s="5">
+        <v>89224</v>
+      </c>
+      <c r="C35" s="5">
+        <v>89224</v>
+      </c>
+      <c r="D35" s="5">
+        <v>110071</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="16">
+        <v>2050</v>
+      </c>
+      <c r="B36" s="5">
+        <v>89263</v>
+      </c>
+      <c r="C36" s="5">
+        <v>89263</v>
+      </c>
+      <c r="D36" s="5">
+        <v>110766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="16">
+        <v>2051</v>
+      </c>
+      <c r="B37" s="5">
+        <v>89266</v>
+      </c>
+      <c r="C37" s="5">
+        <v>89266</v>
+      </c>
+      <c r="D37" s="5">
+        <v>111494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="16">
+        <v>2052</v>
+      </c>
+      <c r="B38" s="5">
+        <v>89238</v>
+      </c>
+      <c r="C38" s="5">
+        <v>89238</v>
+      </c>
+      <c r="D38" s="5">
+        <v>112240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="16">
+        <v>2053</v>
+      </c>
+      <c r="B39" s="5">
+        <v>89193</v>
+      </c>
+      <c r="C39" s="5">
+        <v>89193</v>
+      </c>
+      <c r="D39" s="5">
+        <v>113018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="16">
+        <v>2054</v>
+      </c>
+      <c r="B40" s="5">
+        <v>89140</v>
+      </c>
+      <c r="C40" s="5">
+        <v>89140</v>
+      </c>
+      <c r="D40" s="5">
+        <v>113804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="16">
+        <v>2055</v>
+      </c>
+      <c r="B41" s="5">
+        <v>89072</v>
+      </c>
+      <c r="C41" s="5">
+        <v>89072</v>
+      </c>
+      <c r="D41" s="5">
+        <v>114607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="16">
+        <v>2056</v>
+      </c>
+      <c r="B42" s="5">
+        <v>89008</v>
+      </c>
+      <c r="C42" s="5">
+        <v>89008</v>
+      </c>
+      <c r="D42" s="5">
+        <v>115391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="16">
+        <v>2057</v>
+      </c>
+      <c r="B43" s="5">
+        <v>88935</v>
+      </c>
+      <c r="C43" s="5">
+        <v>88935</v>
+      </c>
+      <c r="D43" s="5">
+        <v>116168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A44" s="16">
+        <v>2058</v>
+      </c>
+      <c r="B44" s="5">
+        <v>88871</v>
+      </c>
+      <c r="C44" s="5">
+        <v>88871</v>
+      </c>
+      <c r="D44" s="5">
+        <v>116908</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="16">
+        <v>2059</v>
+      </c>
+      <c r="B45" s="5">
+        <v>88826</v>
+      </c>
+      <c r="C45" s="5">
+        <v>88826</v>
+      </c>
+      <c r="D45" s="5">
+        <v>117618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="16">
+        <v>2060</v>
+      </c>
+      <c r="B46" s="5">
+        <v>88788</v>
+      </c>
+      <c r="C46" s="5">
+        <v>88788</v>
+      </c>
+      <c r="D46" s="5">
+        <v>118310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="16">
+        <v>2061</v>
+      </c>
+      <c r="B47" s="5">
+        <v>88763</v>
+      </c>
+      <c r="C47" s="5">
+        <v>88763</v>
+      </c>
+      <c r="D47" s="5">
+        <v>118958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" s="16">
+        <v>2062</v>
+      </c>
+      <c r="B48" s="5">
+        <v>88767</v>
+      </c>
+      <c r="C48" s="5">
+        <v>88767</v>
+      </c>
+      <c r="D48" s="5">
+        <v>119588</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="16">
+        <v>2063</v>
+      </c>
+      <c r="B49" s="5">
+        <v>88792</v>
+      </c>
+      <c r="C49" s="5">
+        <v>88792</v>
+      </c>
+      <c r="D49" s="5">
+        <v>120180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="16">
+        <v>2064</v>
+      </c>
+      <c r="B50" s="5">
+        <v>88840</v>
+      </c>
+      <c r="C50" s="5">
+        <v>88840</v>
+      </c>
+      <c r="D50" s="5">
+        <v>120749</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="16">
+        <v>2065</v>
+      </c>
+      <c r="B51" s="5">
+        <v>88918</v>
+      </c>
+      <c r="C51" s="5">
+        <v>88918</v>
+      </c>
+      <c r="D51" s="5">
+        <v>121312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="16">
+        <v>2066</v>
+      </c>
+      <c r="B52" s="5">
+        <v>89034</v>
+      </c>
+      <c r="C52" s="5">
+        <v>89034</v>
+      </c>
+      <c r="D52" s="5">
+        <v>121850</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>